--- a/medicine/Mort/Cimetière_de_Saint-Rémy-de-Provence/Cimetière_de_Saint-Rémy-de-Provence.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Rémy-de-Provence/Cimetière_de_Saint-Rémy-de-Provence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-R%C3%A9my-de-Provence</t>
+          <t>Cimetière_de_Saint-Rémy-de-Provence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Saint-Rémy-de-Provence est le cimetière communal de Saint-Rémy-de-Provence dans les Bouches-du-Rhône. Il est connu pour accueillir des sépultures de personnalités tant locales que nationales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Saint-Rémy-de-Provence est le cimetière communal de Saint-Rémy-de-Provence dans les Bouches-du-Rhône. Il est connu pour accueillir des sépultures de personnalités tant locales que nationales.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-R%C3%A9my-de-Provence</t>
+          <t>Cimetière_de_Saint-Rémy-de-Provence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Saint-Rémy-de-Provence est un grand cimetière séparé par des murs au fur et à mesure de ses extensions successives, se trouvant des deux côtés du chemin du Souvenir-Français[2]. La partie ancienne possède un patrimoine riche tant du point de vue artistique qu'historique avec ses tombes de calcaire, chapelles et monuments. En revanche la partie moderne se caractérise par des tombes vendues sur catalogues sans valeur esthétique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Saint-Rémy-de-Provence est un grand cimetière séparé par des murs au fur et à mesure de ses extensions successives, se trouvant des deux côtés du chemin du Souvenir-Français. La partie ancienne possède un patrimoine riche tant du point de vue artistique qu'historique avec ses tombes de calcaire, chapelles et monuments. En revanche la partie moderne se caractérise par des tombes vendues sur catalogues sans valeur esthétique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-R%C3%A9my-de-Provence</t>
+          <t>Cimetière_de_Saint-Rémy-de-Provence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre de Brun (1874-1941), paléontologue, fondateur du musée des Alpilles
 Léon Daudet (1867-1942), fils d'Alphonse Daudet, écrivain, polémiste et député
